--- a/2_Excel Basics for Data Analysis/W4_AnalyseDataUsingSpreadsheet/Personal_Monthly_Expenditure_Lab6.xlsx
+++ b/2_Excel Basics for Data Analysis/W4_AnalyseDataUsingSpreadsheet/Personal_Monthly_Expenditure_Lab6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheldonnnn/Documents/一些学习笔记/IBMDA/2_Excel Basics for Data Analysis/W4_AnalyseDataUsingSpreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B268693B-4159-7644-9E55-6C70068B0F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF3857CF-B4FC-C34E-8527-4044321DA0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="26600" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -991,7 +991,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1076,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="L2">
-        <f>HLOOKUP(D1,A1:H14,10,)</f>
+        <f>VLOOKUP(K2,A1:H14,4,TRUE)</f>
         <v>400</v>
       </c>
       <c r="M2">
@@ -1114,8 +1114,8 @@
         <v>12</v>
       </c>
       <c r="L3">
-        <f>HLOOKUP(D2, A2:H15, 10, FALSE)</f>
-        <v>420</v>
+        <f t="shared" ref="L3:L4" si="0">VLOOKUP(K3,A2:H15,4,TRUE)</f>
+        <v>400</v>
       </c>
       <c r="M3">
         <f>HLOOKUP(G2, A2:H15, 10, FALSE)</f>
@@ -1152,7 +1152,7 @@
         <v>14</v>
       </c>
       <c r="L4">
-        <f>HLOOKUP(D3, A3:H16, 10, FALSE)</f>
+        <f>VLOOKUP(K4,A3:H16,4,)</f>
         <v>390</v>
       </c>
       <c r="M4">
@@ -1183,7 +1183,7 @@
         <v>60</v>
       </c>
       <c r="H5" s="3">
-        <f t="shared" ref="H5:H13" si="0">SUM(B5:G5)</f>
+        <f t="shared" ref="H5:H13" si="1">SUM(B5:G5)</f>
         <v>1640</v>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
         <v>60</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1620</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
         <v>60</v>
       </c>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1650</v>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
         <v>80</v>
       </c>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1650</v>
       </c>
     </row>
@@ -1318,7 +1318,7 @@
         <v>60</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1640</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
         <v>60</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1650</v>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
         <v>50</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1660</v>
       </c>
     </row>
@@ -1399,7 +1399,7 @@
         <v>60</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1695</v>
       </c>
     </row>
@@ -1412,19 +1412,19 @@
         <v>9600</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" ref="C14:F14" si="1">SUM(C2:C13)</f>
+        <f t="shared" ref="C14:F14" si="2">SUM(C2:C13)</f>
         <v>2060</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4820</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1280</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1300</v>
       </c>
       <c r="G14" s="2">
@@ -1445,11 +1445,11 @@
         <v>800</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:F16" si="2">AVERAGE(C2:C13)</f>
+        <f t="shared" ref="C16:F16" si="3">AVERAGE(C2:C13)</f>
         <v>171.66666666666666</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>401.66666666666669</v>
       </c>
       <c r="E16" s="2">
@@ -1457,7 +1457,7 @@
         <v>106.66666666666667</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>108.33333333333333</v>
       </c>
       <c r="G16" s="2">
@@ -1474,23 +1474,23 @@
         <v>800</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" ref="C17:G17" si="3">MIN(C2:C13)</f>
+        <f t="shared" ref="C17:G17" si="4">MIN(C2:C13)</f>
         <v>150</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>350</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
     </row>
@@ -1503,23 +1503,23 @@
         <v>800</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" ref="C18:G18" si="4">MAX(C2:C13)</f>
+        <f t="shared" ref="C18:G18" si="5">MAX(C2:C13)</f>
         <v>220</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>420</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>130</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
     </row>
@@ -1532,23 +1532,23 @@
         <v>12</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:G19" si="5">COUNT(C2:C13)</f>
+        <f t="shared" ref="C19:G19" si="6">COUNT(C2:C13)</f>
         <v>12</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>12</v>
       </c>
     </row>
@@ -1565,7 +1565,7 @@
         <v>165</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" ref="D20:G20" si="6">MEDIAN(D2:D13)</f>
+        <f t="shared" ref="D20:G20" si="7">MEDIAN(D2:D13)</f>
         <v>400</v>
       </c>
       <c r="E20" s="2">
@@ -1573,11 +1573,11 @@
         <v>100</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
     </row>
@@ -1642,15 +1642,15 @@
         <v>4</v>
       </c>
       <c r="B34">
-        <f t="shared" ref="B34:B40" si="7">A32+A33</f>
+        <f t="shared" ref="B34:B40" si="8">A32+A33</f>
         <v>5</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:C40" si="8">$A$31+$A$32</f>
+        <f t="shared" ref="C34:C40" si="9">$A$31+$A$32</f>
         <v>3</v>
       </c>
       <c r="D34">
-        <f t="shared" ref="D34:D40" si="9">$A$31+$A33</f>
+        <f t="shared" ref="D34:D40" si="10">$A$31+$A33</f>
         <v>4</v>
       </c>
       <c r="E34"/>
@@ -1662,7 +1662,7 @@
         <v>5</v>
       </c>
       <c r="B35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="C35">
@@ -1670,7 +1670,7 @@
         <v>3</v>
       </c>
       <c r="D35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="E35"/>
@@ -1682,15 +1682,15 @@
         <v>6</v>
       </c>
       <c r="B36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="C36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="E36"/>
@@ -1702,15 +1702,15 @@
         <v>7</v>
       </c>
       <c r="B37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="C37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="E37"/>
@@ -1722,15 +1722,15 @@
         <v>8</v>
       </c>
       <c r="B38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="C38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="E38"/>
@@ -1742,15 +1742,15 @@
         <v>9</v>
       </c>
       <c r="B39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="C39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="E39"/>
@@ -1762,15 +1762,15 @@
         <v>10</v>
       </c>
       <c r="B40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="C40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="D40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="E40"/>
